--- a/Need_translation_data_sample.xlsx
+++ b/Need_translation_data_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/rmhimdi_ucl_ac_uk/Documents/Documents/GitHub/Sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{E2247702-2D90-46C5-AED9-98200318C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29962980-8633-4843-9646-893578DEA826}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{E2247702-2D90-46C5-AED9-98200318C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA36EC69-0D3E-4943-BEF6-3BCFD6CF355E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F87D4DE1-D3D6-46AB-9E42-6980084ED39B}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>Mortality at 1 year</t>
   </si>
   <si>
-    <t>Centre</t>
-  </si>
-  <si>
     <t>Research-genetic</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Guidelines (category)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -536,9 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F19E70-10A1-48F1-A388-EA13BE65C1F3}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -548,13 +546,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -727,11 +725,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <f>SUM(C2)</f>
-        <v>0.21</v>
+        <f>SUM(C2:C3)</f>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -739,11 +737,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C18">
-        <f>SUM(C3:C8)</f>
-        <v>2.99</v>
+        <f>SUM(C4:C8)</f>
+        <v>2.92</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -751,7 +749,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <f>SUM(C9:C10)</f>
@@ -763,7 +761,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <f>SUM(C11:C12)</f>
@@ -775,7 +773,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <f>SUM(C13:C16)</f>
@@ -784,10 +782,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
       </c>
       <c r="C22">
         <f>SUM(C27:C28)</f>
@@ -796,10 +794,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <f>SUM(C29:C32)</f>
@@ -808,10 +806,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <f>SUM(C33:C34)</f>
@@ -820,10 +818,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <f>SUM(C35)</f>
@@ -832,10 +830,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <f>SUM(C36:C38)</f>
@@ -844,10 +842,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>0.95</v>
@@ -855,10 +853,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>0.3</v>
@@ -866,10 +864,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>0.98</v>
@@ -877,10 +875,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>0.95</v>
@@ -888,10 +886,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>0.97</v>
@@ -899,10 +897,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>0.98</v>
@@ -910,10 +908,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>0.62</v>
@@ -921,10 +919,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34">
         <v>0.88</v>
@@ -932,10 +930,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <v>0.98</v>
@@ -943,10 +941,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36">
         <v>0.92</v>
@@ -954,10 +952,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37">
         <v>0.5</v>
@@ -965,10 +963,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <v>0.2</v>
